--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H2">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>101.3242838861273</v>
+        <v>26.08100137282133</v>
       </c>
       <c r="R2">
-        <v>911.9185549751461</v>
+        <v>234.729012355392</v>
       </c>
       <c r="S2">
-        <v>0.01224109948963257</v>
+        <v>0.003131859014957021</v>
       </c>
       <c r="T2">
-        <v>0.01224109948963257</v>
+        <v>0.003131859014957021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H3">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>333.7657767319714</v>
+        <v>140.0175535283627</v>
       </c>
       <c r="R3">
-        <v>3003.891990587742</v>
+        <v>1260.157981755264</v>
       </c>
       <c r="S3">
-        <v>0.04032261490051286</v>
+        <v>0.01681358898002286</v>
       </c>
       <c r="T3">
-        <v>0.04032261490051286</v>
+        <v>0.01681358898002286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H4">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>167.7796693684706</v>
+        <v>74.28320639965867</v>
       </c>
       <c r="R4">
-        <v>1510.017024316236</v>
+        <v>668.548857596928</v>
       </c>
       <c r="S4">
-        <v>0.02026964856110176</v>
+        <v>0.008920076583605406</v>
       </c>
       <c r="T4">
-        <v>0.02026964856110177</v>
+        <v>0.008920076583605408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H5">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>398.3160119375233</v>
+        <v>151.558174334528</v>
       </c>
       <c r="R5">
-        <v>3584.84410743771</v>
+        <v>1364.023569010752</v>
       </c>
       <c r="S5">
-        <v>0.04812100064699756</v>
+        <v>0.01819940989975388</v>
       </c>
       <c r="T5">
-        <v>0.04812100064699756</v>
+        <v>0.01819940989975388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>323.3523347543822</v>
+        <v>198.4019966414045</v>
       </c>
       <c r="R6">
-        <v>2910.17101278944</v>
+        <v>1785.61796977264</v>
       </c>
       <c r="S6">
-        <v>0.03906455538715432</v>
+        <v>0.02382451014378511</v>
       </c>
       <c r="T6">
-        <v>0.03906455538715432</v>
+        <v>0.02382451014378511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>1065.134033305209</v>
@@ -883,10 +883,10 @@
         <v>9586.20629974688</v>
       </c>
       <c r="S7">
-        <v>0.1286800278414582</v>
+        <v>0.1279034334862884</v>
       </c>
       <c r="T7">
-        <v>0.1286800278414582</v>
+        <v>0.1279034334862884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>63.15952</v>
       </c>
       <c r="I8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>535.4288797696711</v>
+        <v>565.0832288201956</v>
       </c>
       <c r="R8">
-        <v>4818.85991792704</v>
+        <v>5085.74905938176</v>
       </c>
       <c r="S8">
-        <v>0.06468575878857431</v>
+        <v>0.06785632879210668</v>
       </c>
       <c r="T8">
-        <v>0.06468575878857431</v>
+        <v>0.06785632879210669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>63.15952</v>
       </c>
       <c r="I9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>1271.130744677156</v>
+        <v>1152.925225740427</v>
       </c>
       <c r="R9">
-        <v>11440.1767020944</v>
+        <v>10376.32703166384</v>
       </c>
       <c r="S9">
-        <v>0.1535667197748059</v>
+        <v>0.1384455761567989</v>
       </c>
       <c r="T9">
-        <v>0.1535667197748059</v>
+        <v>0.1384455761567989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H10">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>413.0301070356338</v>
+        <v>329.6219719727296</v>
       </c>
       <c r="R10">
-        <v>3717.270963320705</v>
+        <v>2966.597747754567</v>
       </c>
       <c r="S10">
-        <v>0.04989862684959978</v>
+        <v>0.03958166826855355</v>
       </c>
       <c r="T10">
-        <v>0.04989862684959979</v>
+        <v>0.03958166826855355</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H11">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>1360.535788670023</v>
+        <v>1769.59701221102</v>
       </c>
       <c r="R11">
-        <v>12244.82209803021</v>
+        <v>15926.37310989917</v>
       </c>
       <c r="S11">
-        <v>0.1643678426292405</v>
+        <v>0.2124967625403167</v>
       </c>
       <c r="T11">
-        <v>0.1643678426292405</v>
+        <v>0.2124967625403167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H12">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>683.9234598049849</v>
+        <v>938.8204320800606</v>
       </c>
       <c r="R12">
-        <v>6155.311138244864</v>
+        <v>8449.383888720546</v>
       </c>
       <c r="S12">
-        <v>0.08262555424694967</v>
+        <v>0.1127354426160869</v>
       </c>
       <c r="T12">
-        <v>0.08262555424694969</v>
+        <v>0.1127354426160869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>34.97741266666667</v>
+      </c>
+      <c r="H13">
+        <v>104.932238</v>
+      </c>
+      <c r="I13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="J13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>54.762539</v>
+      </c>
+      <c r="N13">
+        <v>164.287617</v>
+      </c>
+      <c r="O13">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="P13">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="Q13">
+        <v>1915.451925277428</v>
+      </c>
+      <c r="R13">
+        <v>17239.06732749685</v>
+      </c>
+      <c r="S13">
+        <v>0.2300113133749647</v>
+      </c>
+      <c r="T13">
+        <v>0.2300113133749647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>26.89201066666667</v>
-      </c>
-      <c r="H13">
-        <v>80.67603200000001</v>
-      </c>
-      <c r="I13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="J13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>60.37715666666667</v>
-      </c>
-      <c r="N13">
-        <v>181.13147</v>
-      </c>
-      <c r="O13">
-        <v>0.397844271305776</v>
-      </c>
-      <c r="P13">
-        <v>0.397844271305776</v>
-      </c>
-      <c r="Q13">
-        <v>1623.663141103005</v>
-      </c>
-      <c r="R13">
-        <v>14612.96826992704</v>
-      </c>
-      <c r="S13">
-        <v>0.1961565508839725</v>
-      </c>
-      <c r="T13">
-        <v>0.1961565508839725</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.004706</v>
+      </c>
+      <c r="H14">
+        <v>0.014118</v>
+      </c>
+      <c r="I14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.423852333333334</v>
+      </c>
+      <c r="N14">
+        <v>28.271557</v>
+      </c>
+      <c r="O14">
+        <v>0.06654336290212845</v>
+      </c>
+      <c r="P14">
+        <v>0.06654336290212845</v>
+      </c>
+      <c r="Q14">
+        <v>0.04434864908066667</v>
+      </c>
+      <c r="R14">
+        <v>0.399137841726</v>
+      </c>
+      <c r="S14">
+        <v>5.325474832771974E-06</v>
+      </c>
+      <c r="T14">
+        <v>5.325474832771974E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004706</v>
+      </c>
+      <c r="H15">
+        <v>0.014118</v>
+      </c>
+      <c r="I15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.59256466666667</v>
+      </c>
+      <c r="N15">
+        <v>151.777694</v>
+      </c>
+      <c r="O15">
+        <v>0.3572423751649123</v>
+      </c>
+      <c r="P15">
+        <v>0.3572423751649123</v>
+      </c>
+      <c r="Q15">
+        <v>0.2380886093213334</v>
+      </c>
+      <c r="R15">
+        <v>2.142797483892</v>
+      </c>
+      <c r="S15">
+        <v>2.85901582842843E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.85901582842843E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004706</v>
+      </c>
+      <c r="H16">
+        <v>0.014118</v>
+      </c>
+      <c r="I16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.84076266666667</v>
+      </c>
+      <c r="N16">
+        <v>80.522288</v>
+      </c>
+      <c r="O16">
+        <v>0.1895270158659356</v>
+      </c>
+      <c r="P16">
+        <v>0.1895270158659356</v>
+      </c>
+      <c r="Q16">
+        <v>0.1263126291093333</v>
+      </c>
+      <c r="R16">
+        <v>1.136813661984</v>
+      </c>
+      <c r="S16">
+        <v>1.516787413658245E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.516787413658246E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004706</v>
+      </c>
+      <c r="H17">
+        <v>0.014118</v>
+      </c>
+      <c r="I17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>54.762539</v>
+      </c>
+      <c r="N17">
+        <v>164.287617</v>
+      </c>
+      <c r="O17">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="P17">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="Q17">
+        <v>0.257712508534</v>
+      </c>
+      <c r="R17">
+        <v>2.319412576806</v>
+      </c>
+      <c r="S17">
+        <v>3.094663550612302E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.094663550612302E-05</v>
       </c>
     </row>
   </sheetData>
